--- a/data/trans_dic/P22$notiene-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.002326163307134063</v>
+        <v>0.002326163307134062</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001010280913940474</v>
+        <v>0.001012955750950524</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -726,14 +726,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0007055771946291526</v>
+        <v>0.000705382961896118</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.0006415414884930081</v>
+        <v>0.0006411169414998681</v>
       </c>
     </row>
     <row r="6">
@@ -744,32 +744,32 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01309759039554046</v>
+        <v>0.01273857667215622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006799233365675893</v>
+        <v>0.006517823879848151</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.01040007331787879</v>
+        <v>0.01085934793188686</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.003910966246549082</v>
+        <v>0.003550042402638645</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.00581076609222653</v>
+        <v>0.005547919358669697</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00549048465559513</v>
+        <v>0.005926204395703807</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.002745295683415188</v>
+        <v>0.003034116811888872</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.006102942098950077</v>
+        <v>0.005831848552233932</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.001840916623370297</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.001890749522058223</v>
+        <v>0.001890749522058224</v>
       </c>
     </row>
     <row r="8">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0005072183772337927</v>
+        <v>0.0005104932073407203</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0</v>
+        <v>0.0004274812334063485</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0009759595003415965</v>
+        <v>0.0009744062761809318</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0007218071453200045</v>
+        <v>0.0006932445351057589</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0008905688988945628</v>
+        <v>0.0009308809165974967</v>
       </c>
     </row>
     <row r="9">
@@ -872,40 +872,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.005426093186142782</v>
+        <v>0.005835468098576349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.004163727407460431</v>
+        <v>0.004830557356048486</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.006086298797967178</v>
+        <v>0.005916734334875593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.004462910485033024</v>
+        <v>0.005252498586605557</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.003699187837931759</v>
+        <v>0.003540356264830123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.00340771315512671</v>
+        <v>0.00412365564169004</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.004015660143577827</v>
+        <v>0.004174909937518156</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.005317760473162156</v>
+        <v>0.005845666824291868</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003471747735661399</v>
+        <v>0.003016266778229065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.002279476509507527</v>
+        <v>0.002089089576173172</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.003889679854933363</v>
+        <v>0.003938555677417753</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.003804250272372038</v>
+        <v>0.004056916961207171</v>
       </c>
     </row>
     <row r="10">
@@ -993,10 +993,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01354356594964137</v>
+        <v>0.0167270115751546</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01571742361882693</v>
+        <v>0.01349651803644351</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
@@ -1005,10 +1005,10 @@
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.006434367526110331</v>
+        <v>0.006457060498601634</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.006792967626169306</v>
+        <v>0.00674460801730574</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1033,7 +1033,7 @@
         <v>0.002006518187280013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.001396732059493743</v>
+        <v>0.001396732059493744</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0005895041009453678</v>
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0003543728446496547</v>
+        <v>0.0003536512920893052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00072131424687199</v>
+        <v>0.0007224924612552414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.000307157604278303</v>
+        <v>0.0003277872131551736</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0002405513345809594</v>
+        <v>0.000240706659312812</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0008718777945289228</v>
+        <v>0.0008779386148117552</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0001764387772427064</v>
+        <v>0.0001753682763138203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0006617963728420535</v>
+        <v>0.0006141428872763451</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0008573429986538438</v>
+        <v>0.0008235175237498717</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.003266237944185838</v>
+        <v>0.003281875869067732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.004965045365288674</v>
+        <v>0.004814690413488672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.003594967226142251</v>
+        <v>0.003445543604185175</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.001832355725074727</v>
+        <v>0.001678060743277769</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.002410601196897665</v>
+        <v>0.00278137481271696</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.00324735622052758</v>
+        <v>0.003306193198326578</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.001580241650673218</v>
+        <v>0.001756092168201871</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.00279181481890219</v>
+        <v>0.00259156527836766</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.002789828657459506</v>
+        <v>0.002799753509054337</v>
       </c>
     </row>
     <row r="16">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7">
@@ -1451,32 +1451,32 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13476</v>
+        <v>13106</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6627</v>
+        <v>6353</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>6017</v>
+        <v>6282</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5140</v>
+        <v>4666</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4772</v>
+        <v>4557</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12865</v>
+        <v>13886</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6348</v>
+        <v>7016</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>8543</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="8">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2931</v>
+        <v>2815</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3919</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="11">
@@ -1623,40 +1623,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9169</v>
+        <v>9861</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8173</v>
+        <v>9482</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12621</v>
+        <v>12269</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9955</v>
+        <v>11716</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5869</v>
+        <v>5617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5990</v>
+        <v>7249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7977</v>
+        <v>8293</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11541</v>
+        <v>12687</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11375</v>
+        <v>9882</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8481</v>
+        <v>7773</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15792</v>
+        <v>15991</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16742</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="12">
@@ -1788,10 +1788,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6517</v>
+        <v>8049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8581</v>
+        <v>7368</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
@@ -1800,10 +1800,10 @@
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>6047</v>
+        <v>6068</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>7439</v>
+        <v>7386</v>
       </c>
       <c r="N15" s="6" t="inlineStr"/>
     </row>
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1081</v>
+        <v>1154</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3249</v>
+        <v>3272</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4566</v>
+        <v>4237</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6213</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="19">
@@ -1951,40 +1951,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11167</v>
+        <v>11220</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16746</v>
+        <v>16239</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12657</v>
+        <v>12131</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6513</v>
+        <v>5964</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8500</v>
+        <v>9808</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12101</v>
+        <v>12321</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11019</v>
+        <v>12245</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19261</v>
+        <v>17879</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20218</v>
+        <v>20290</v>
       </c>
     </row>
     <row r="20">
